--- a/output/hs_urls_13_01_2023_output_25-01-2023_15_40_08.xlsx
+++ b/output/hs_urls_13_01_2023_output_25-01-2023_15_40_08.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Docplanner\Documents\Visibility\Repo\output\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FCE1EA49-24DD-46BA-8CD8-FA310D159004}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7D1FF97D-7B30-4835-B19D-99F3FB929D3E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1296" yWindow="1560" windowWidth="21600" windowHeight="11328" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -11971,7 +11971,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -11983,6 +11983,14 @@
       <b/>
       <sz val="11"/>
       <name val="Calibri"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -12017,16 +12025,19 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -12330,7 +12341,7 @@
   <dimension ref="A1:J3800"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F16" sqref="F16"/>
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -12368,7 +12379,7 @@
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
+      <c r="A2" s="2" t="s">
         <v>10</v>
       </c>
       <c r="B2">
@@ -59932,6 +59943,9 @@
       </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A2" r:id="rId1" xr:uid="{9706131E-E809-4AE2-9ACC-7E6C8F3E7C5E}"/>
+  </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>